--- a/Assets/JJData/Xlsx/Monster_Info.xlsx
+++ b/Assets/JJData/Xlsx/Monster_Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\2_UNITIYGAME\DungeonRPG\Assets\JJData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65B8920-6854-4895-A52C-7F071B8C1C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F323BF7E-001C-4EBA-B5CE-92D06BD8B62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monster" sheetId="1" r:id="rId1"/>
@@ -43,8 +43,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -52,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="88">
   <si>
     <t>#변수 설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -353,6 +351,18 @@
   </si>
   <si>
     <t>Monster_condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스틍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -956,29 +966,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.625" customWidth="1"/>
-    <col min="12" max="13" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.625" customWidth="1"/>
+    <col min="13" max="14" width="21.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -986,40 +997,43 @@
         <v>4</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1027,7 +1041,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>12</v>
@@ -1036,10 +1050,10 @@
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>12</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>12</v>
@@ -1048,7 +1062,7 @@
         <v>12</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>3</v>
@@ -1059,8 +1073,11 @@
       <c r="M2" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1068,107 +1085,113 @@
         <v>13</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="L3" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="M3" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="N3" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="10">
         <v>1</v>
       </c>
-      <c r="D4" s="10">
+      <c r="E4" s="10">
         <v>10</v>
       </c>
-      <c r="E4" s="10">
+      <c r="F4" s="10">
         <v>50</v>
       </c>
-      <c r="F4" s="10">
+      <c r="G4" s="10">
         <v>5</v>
       </c>
-      <c r="G4" s="10">
+      <c r="H4" s="10">
         <v>2</v>
-      </c>
-      <c r="H4" s="10">
-        <v>300</v>
       </c>
       <c r="I4" s="10">
         <v>300</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="10">
+        <v>300</v>
+      </c>
+      <c r="K4" t="s">
         <v>76</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>73</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>79</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>73</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="J4:J5">
+  <conditionalFormatting sqref="K4:K5">
     <cfRule type="expression" dxfId="15" priority="4">
-      <formula>AND(J4&lt;&gt;"", ISERROR(MATCH(J4, 특성테이블id, 0)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4:K5">
-    <cfRule type="expression" dxfId="14" priority="2">
-      <formula>AND(K4&lt;&gt;"", ISERROR(MATCH(K4, 드롭테이블id, 0)))</formula>
+      <formula>AND(K4&lt;&gt;"", ISERROR(MATCH(K4, 특성테이블id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5">
-    <cfRule type="expression" dxfId="13" priority="3">
-      <formula>AND(L4&lt;&gt;"", ISERROR(MATCH(L4, 특수조건id, 0)))</formula>
+    <cfRule type="expression" dxfId="14" priority="2">
+      <formula>AND(L4&lt;&gt;"", ISERROR(MATCH(L4, 드롭테이블id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M5">
+    <cfRule type="expression" dxfId="13" priority="3">
+      <formula>AND(M4&lt;&gt;"", ISERROR(MATCH(M4, 특수조건id, 0)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4:N5">
     <cfRule type="expression" dxfId="12" priority="1">
-      <formula>AND(M4&lt;&gt;"", ISERROR(MATCH(M4, 드롭테이블id, 0)))</formula>
+      <formula>AND(N4&lt;&gt;"", ISERROR(MATCH(N4, 드롭테이블id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J5" xr:uid="{14251A4C-726F-4010-8FA3-51A40B370DF0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K5" xr:uid="{14251A4C-726F-4010-8FA3-51A40B370DF0}">
       <formula1>특성테이블id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L5" xr:uid="{0B8CD17E-FF1C-4A82-B2E5-1A6876C64E8E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M4:M5" xr:uid="{0B8CD17E-FF1C-4A82-B2E5-1A6876C64E8E}">
       <formula1>특수조건id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K5 M4:M5" xr:uid="{798259A7-8F38-4ACD-9499-CA36D2FEA58E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L5 N4:N5" xr:uid="{798259A7-8F38-4ACD-9499-CA36D2FEA58E}">
       <formula1>드롭테이블id</formula1>
     </dataValidation>
   </dataValidations>
@@ -1180,7 +1203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5E488C-5698-4BB8-9C5E-1FC627A56FA2}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/Assets/JJData/Xlsx/Monster_Info.xlsx
+++ b/Assets/JJData/Xlsx/Monster_Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\2_UNITIYGAME\DungeonRPG\Assets\JJData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F323BF7E-001C-4EBA-B5CE-92D06BD8B62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65B8920-6854-4895-A52C-7F071B8C1C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monster" sheetId="1" r:id="rId1"/>
@@ -43,6 +43,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="85">
   <si>
     <t>#변수 설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -351,18 +353,6 @@
   </si>
   <si>
     <t>Monster_condition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monster_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스틍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -966,30 +956,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.625" customWidth="1"/>
-    <col min="13" max="14" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.625" customWidth="1"/>
+    <col min="12" max="13" width="21.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -997,43 +986,40 @@
         <v>4</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N1" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1041,7 +1027,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>12</v>
@@ -1050,10 +1036,10 @@
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>12</v>
@@ -1062,7 +1048,7 @@
         <v>12</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>3</v>
@@ -1073,11 +1059,8 @@
       <c r="M2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1085,113 +1068,107 @@
         <v>13</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="N3" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>87</v>
+      <c r="C4" s="10">
+        <v>1</v>
       </c>
       <c r="D4" s="10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E4" s="10">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F4" s="10">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="G4" s="10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H4" s="10">
-        <v>2</v>
+        <v>300</v>
       </c>
       <c r="I4" s="10">
         <v>300</v>
       </c>
-      <c r="J4" s="10">
-        <v>300</v>
+      <c r="J4" t="s">
+        <v>76</v>
       </c>
       <c r="K4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="M4" t="s">
-        <v>79</v>
-      </c>
-      <c r="N4" t="s">
         <v>73</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="J4:J5">
+    <cfRule type="expression" dxfId="15" priority="4">
+      <formula>AND(J4&lt;&gt;"", ISERROR(MATCH(J4, 특성테이블id, 0)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K4:K5">
-    <cfRule type="expression" dxfId="15" priority="4">
-      <formula>AND(K4&lt;&gt;"", ISERROR(MATCH(K4, 특성테이블id, 0)))</formula>
+    <cfRule type="expression" dxfId="14" priority="2">
+      <formula>AND(K4&lt;&gt;"", ISERROR(MATCH(K4, 드롭테이블id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5">
-    <cfRule type="expression" dxfId="14" priority="2">
-      <formula>AND(L4&lt;&gt;"", ISERROR(MATCH(L4, 드롭테이블id, 0)))</formula>
+    <cfRule type="expression" dxfId="13" priority="3">
+      <formula>AND(L4&lt;&gt;"", ISERROR(MATCH(L4, 특수조건id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M5">
-    <cfRule type="expression" dxfId="13" priority="3">
-      <formula>AND(M4&lt;&gt;"", ISERROR(MATCH(M4, 특수조건id, 0)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N4:N5">
     <cfRule type="expression" dxfId="12" priority="1">
-      <formula>AND(N4&lt;&gt;"", ISERROR(MATCH(N4, 드롭테이블id, 0)))</formula>
+      <formula>AND(M4&lt;&gt;"", ISERROR(MATCH(M4, 드롭테이블id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K5" xr:uid="{14251A4C-726F-4010-8FA3-51A40B370DF0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J5" xr:uid="{14251A4C-726F-4010-8FA3-51A40B370DF0}">
       <formula1>특성테이블id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M4:M5" xr:uid="{0B8CD17E-FF1C-4A82-B2E5-1A6876C64E8E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L5" xr:uid="{0B8CD17E-FF1C-4A82-B2E5-1A6876C64E8E}">
       <formula1>특수조건id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L5 N4:N5" xr:uid="{798259A7-8F38-4ACD-9499-CA36D2FEA58E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K5 M4:M5" xr:uid="{798259A7-8F38-4ACD-9499-CA36D2FEA58E}">
       <formula1>드롭테이블id</formula1>
     </dataValidation>
   </dataValidations>
@@ -1203,7 +1180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5E488C-5698-4BB8-9C5E-1FC627A56FA2}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/Assets/JJData/Xlsx/Monster_Info.xlsx
+++ b/Assets/JJData/Xlsx/Monster_Info.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\2_UNITIYGAME\DungeonRPG\Assets\JJData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\DungeonRPG\Assets\JJData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65B8920-6854-4895-A52C-7F071B8C1C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270"/>
   </bookViews>
   <sheets>
     <sheet name="Monster" sheetId="1" r:id="rId1"/>
@@ -31,7 +30,7 @@
     <definedName name="특수조건id">OFFSET(Monster_Condition!$B$4,0,0,COUNTA(Monster_Condition!$B:$B),1)</definedName>
     <definedName name="효과id">OFFSET(Monster_Property_Effect!$B$4,0,0,COUNTA(Monster_Property_Effect!$B:$B),1)</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="91">
   <si>
     <t>#변수 설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -353,13 +352,37 @@
   </si>
   <si>
     <t>Monster_condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MST_HOD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MST_CLN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO_BTL_NOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_BTL_NOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_BTL_NOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weakness_attack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -955,11 +978,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1137,6 +1160,82 @@
       </c>
       <c r="M4" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>300</v>
+      </c>
+      <c r="I5">
+        <v>300</v>
+      </c>
+      <c r="J5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K5" t="s">
+        <v>88</v>
+      </c>
+      <c r="L5" t="s">
+        <v>90</v>
+      </c>
+      <c r="M5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>300</v>
+      </c>
+      <c r="I6">
+        <v>300</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1162,13 +1261,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J5" xr:uid="{14251A4C-726F-4010-8FA3-51A40B370DF0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J5">
       <formula1>특성테이블id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L5" xr:uid="{0B8CD17E-FF1C-4A82-B2E5-1A6876C64E8E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L5">
       <formula1>특수조건id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K5 M4:M5" xr:uid="{798259A7-8F38-4ACD-9499-CA36D2FEA58E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K5 M4:M5">
       <formula1>드롭테이블id</formula1>
     </dataValidation>
   </dataValidations>
@@ -1177,10 +1276,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5E488C-5698-4BB8-9C5E-1FC627A56FA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1399,13 +1498,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J10 D4:D9 G4:G10" xr:uid="{2310EA06-93AC-46CE-9C36-51844E74F757}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J10 D4:D9 G4:G10">
       <formula1>속성id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E9" xr:uid="{C8355628-9BEF-4617-8782-4D6933E022A5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E9">
       <formula1>특수조건id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E5 K4:K10 H4:H10" xr:uid="{C6DCC494-E958-4FC7-9F6B-01AFD6FB2075}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E5 K4:K10 H4:H10">
       <formula1>효과id</formula1>
     </dataValidation>
   </dataValidations>
@@ -1414,7 +1513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0308A052-D82F-4AF1-8039-88CF59C7A9B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1494,7 +1593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE70F591-5801-4682-A014-14BFE4C747B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1574,7 +1673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A3BDFC-1D78-43AB-83D1-0210C2202977}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1820,16 +1919,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D11 H8:H11 L8:L11" xr:uid="{083CF207-EDD0-41FA-A3A9-1F8BBEEBA385}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D11 H8:H11 L8:L11">
       <formula1>약초id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="데이터 없음" sqref="L4:L7 D7 H4 H6:H7" xr:uid="{337B8777-565F-40E0-BAF2-03441911EECA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="데이터 없음" sqref="L4:L7 D7 H4 H6:H7">
       <formula1>광물id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4" xr:uid="{500622B0-BA70-4ECB-93BF-8BCA17533C1F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4">
       <formula1>아이템id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="데이터 없음" sqref="D4:D6 H5" xr:uid="{0DB2A5F9-30F8-4BBB-B94A-818C3A33787F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="데이터 없음" sqref="D4:D6 H5">
       <formula1>아이템id</formula1>
     </dataValidation>
   </dataValidations>
@@ -1838,7 +1937,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE49E672-D2A9-4D14-A39A-10BA7C26F174}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Assets/JJData/Xlsx/Monster_Info.xlsx
+++ b/Assets/JJData/Xlsx/Monster_Info.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="95">
   <si>
     <t>#변수 설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -368,6 +368,22 @@
   </si>
   <si>
     <t>DT_BTL_NOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_BTL_NOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weakness_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MST_TTN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO_BTL_NOR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -979,10 +995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1144,10 +1160,10 @@
         <v>2</v>
       </c>
       <c r="H4" s="10">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="I4" s="10">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="J4" t="s">
         <v>76</v>
@@ -1163,29 +1179,29 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="B5" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="10">
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="10">
         <v>10</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="10">
         <v>100</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="10">
         <v>6</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="10">
         <v>3</v>
       </c>
-      <c r="H5">
-        <v>300</v>
-      </c>
-      <c r="I5">
-        <v>300</v>
+      <c r="H5" s="10">
+        <v>10</v>
+      </c>
+      <c r="I5" s="10">
+        <v>10</v>
       </c>
       <c r="J5" t="s">
         <v>87</v>
@@ -1201,29 +1217,29 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="B6" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="10">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="10">
         <v>10</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="10">
         <v>30</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="10">
         <v>4</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="10">
         <v>1</v>
       </c>
-      <c r="H6">
-        <v>300</v>
-      </c>
-      <c r="I6">
-        <v>300</v>
+      <c r="H6" s="10">
+        <v>10</v>
+      </c>
+      <c r="I6" s="10">
+        <v>10</v>
       </c>
       <c r="J6" t="s">
         <v>87</v>
@@ -1236,6 +1252,44 @@
       </c>
       <c r="M6" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="10">
+        <v>5</v>
+      </c>
+      <c r="D7" s="10">
+        <v>100</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="10">
+        <v>3</v>
+      </c>
+      <c r="G7" s="10">
+        <v>1</v>
+      </c>
+      <c r="H7" s="10">
+        <v>10</v>
+      </c>
+      <c r="I7" s="10">
+        <v>10</v>
+      </c>
+      <c r="J7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1272,6 +1326,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Assets/JJData/Xlsx/Monster_Info.xlsx
+++ b/Assets/JJData/Xlsx/Monster_Info.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\DungeonRPG\Assets\JJData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPG\Assets\JJData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7C27A3-7EA7-41DF-91D9-E99DED24EF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monster" sheetId="1" r:id="rId1"/>
@@ -30,7 +31,7 @@
     <definedName name="특수조건id">OFFSET(Monster_Condition!$B$4,0,0,COUNTA(Monster_Condition!$B:$B),1)</definedName>
     <definedName name="효과id">OFFSET(Monster_Property_Effect!$B$4,0,0,COUNTA(Monster_Property_Effect!$B:$B),1)</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -398,7 +399,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -625,7 +626,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Item"/>
@@ -994,30 +995,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.09765625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.625" customWidth="1"/>
-    <col min="12" max="13" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.09765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.59765625" customWidth="1"/>
+    <col min="12" max="13" width="21.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1058,7 +1059,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1099,7 +1100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1140,7 +1141,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B4" s="10" t="s">
         <v>20</v>
       </c>
@@ -1151,10 +1152,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="10">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F4" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G4" s="10">
         <v>2</v>
@@ -1178,7 +1179,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B5" s="10" t="s">
         <v>85</v>
       </c>
@@ -1189,7 +1190,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F5" s="10">
         <v>6</v>
@@ -1216,7 +1217,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B6" s="10" t="s">
         <v>86</v>
       </c>
@@ -1254,7 +1255,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>91</v>
       </c>
@@ -1315,13 +1316,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J5" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>특성테이블id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L5" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>특수조건id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K5 M4:M5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K5 M4:M5" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>드롭테이블id</formula1>
     </dataValidation>
   </dataValidations>
@@ -1331,29 +1332,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="18.125" customWidth="1"/>
-    <col min="7" max="7" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="18.125" customWidth="1"/>
-    <col min="10" max="10" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="18.125" customWidth="1"/>
-    <col min="13" max="13" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18.09765625" customWidth="1"/>
+    <col min="7" max="7" width="18.09765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="18.09765625" customWidth="1"/>
+    <col min="10" max="10" width="18.09765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="18.09765625" customWidth="1"/>
+    <col min="13" max="13" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1394,7 +1395,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1405,7 +1406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1416,7 +1417,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B4" s="10" t="s">
         <v>77</v>
       </c>
@@ -1442,7 +1443,7 @@
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>78</v>
       </c>
@@ -1472,7 +1473,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="G6" s="10"/>
@@ -1482,7 +1483,7 @@
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="G7" s="10"/>
@@ -1492,7 +1493,7 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="G8" s="10"/>
@@ -1502,7 +1503,7 @@
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="G9" s="10"/>
@@ -1512,7 +1513,7 @@
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
@@ -1553,13 +1554,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J10 D4:D9 G4:G10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J10 D4:D9 G4:G10" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>속성id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E9" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>특수조건id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E5 K4:K10 H4:H10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E5 K4:K10 H4:H10" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>효과id</formula1>
     </dataValidation>
   </dataValidations>
@@ -1568,26 +1569,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.09765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1598,7 +1599,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1609,7 +1610,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1620,7 +1621,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B4" s="10" t="s">
         <v>28</v>
       </c>
@@ -1633,7 +1634,7 @@
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>31</v>
       </c>
@@ -1648,26 +1649,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.09765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1678,7 +1679,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1689,7 +1690,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1700,7 +1701,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B4" s="10" t="s">
         <v>48</v>
       </c>
@@ -1713,7 +1714,7 @@
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>57</v>
       </c>
@@ -1728,23 +1729,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="15" width="12.875" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="15" width="12.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1791,7 +1792,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1814,7 +1815,7 @@
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
     </row>
-    <row r="3" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1837,7 +1838,7 @@
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>74</v>
       </c>
@@ -1860,7 +1861,7 @@
       <c r="H4" s="10"/>
       <c r="L4" s="10"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>75</v>
       </c>
@@ -1894,7 +1895,7 @@
       </c>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="D6" s="10" t="s">
         <v>68</v>
       </c>
@@ -1902,40 +1903,40 @@
       <c r="J6" s="11"/>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="D7" s="10"/>
       <c r="H7" s="10"/>
       <c r="L7" s="10"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C13" t="str">
         <f t="shared" ref="C13:C17" si="0">_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D13,E13,F13,G13),_xlfn.TEXTJOIN("/",TRUE,H13,I13,J13,K13),_xlfn.TEXTJOIN("/",TRUE,L13,M13,N13,O13))</f>
         <v/>
       </c>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C17" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1974,16 +1975,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D11 H8:H11 L8:L11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D11 H8:H11 L8:L11" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>약초id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="데이터 없음" sqref="L4:L7 D7 H4 H6:H7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="데이터 없음" sqref="L4:L7 D7 H4 H6:H7" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>광물id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>아이템id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="데이터 없음" sqref="D4:D6 H5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="데이터 없음" sqref="D4:D6 H5" xr:uid="{00000000-0002-0000-0400-000003000000}">
       <formula1>아이템id</formula1>
     </dataValidation>
   </dataValidations>
@@ -1992,26 +1993,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.09765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2022,7 +2023,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2033,7 +2034,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2044,7 +2045,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B4" s="10" t="s">
         <v>80</v>
       </c>

--- a/Assets/JJData/Xlsx/Monster_Info.xlsx
+++ b/Assets/JJData/Xlsx/Monster_Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPG\Assets\JJData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7C27A3-7EA7-41DF-91D9-E99DED24EF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F21115A-AB04-4DD7-BB41-8421BF5F4DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
   <definedNames>
     <definedName name="드롭테이블id">OFFSET(Monster_DropTable!$B$4,0,0,COUNTA(Monster_DropTable!$B:$B),1)</definedName>
     <definedName name="속성id">OFFSET(Monster_Property!$B$4,0,0,COUNTA(Monster_Property!$B:$B),1)</definedName>
-    <definedName name="아이템id">OFFSET([1]DropItem!$B$4,0,0,COUNTA([1]DropItem!$B:$B),1)</definedName>
+    <definedName name="아이템id">OFFSET([1]Item!$B$4,0,0,COUNTA([1]Item!$B:$B),1)</definedName>
     <definedName name="특성테이블id">OFFSET(Monster_Property_Table!$B$4,0,0,COUNTA(Monster_Property_Table!$B:$B),1)</definedName>
     <definedName name="특수조건id">OFFSET(Monster_Condition!$B$4,0,0,COUNTA(Monster_Condition!$B:$B),1)</definedName>
     <definedName name="효과id">OFFSET(Monster_Property_Effect!$B$4,0,0,COUNTA(Monster_Property_Effect!$B:$B),1)</definedName>
@@ -292,13 +292,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ITM_MIN_CPR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_MIN_SIL</t>
-  </si>
-  <si>
     <t>이동속도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -393,6 +386,13 @@
   </si>
   <si>
     <t>Weakness_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIN_CPR</t>
+  </si>
+  <si>
+    <t>MIN_CPR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -628,23 +628,23 @@
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Item"/>
-      <sheetName val="UseItem"/>
-      <sheetName val="DropItem"/>
+      <sheetName val="MiscItem"/>
+      <sheetName val="ThrowableItem"/>
       <sheetName val="Weapon"/>
       <sheetName val="Armor"/>
       <sheetName val="Backpack"/>
-      <sheetName val="Pouch"/>
+      <sheetName val="SubWeapon"/>
       <sheetName val="Potion"/>
-      <sheetName val="ResourceNode"/>
-      <sheetName val="ResourceNode_DropTable"/>
+      <sheetName val="Hone"/>
       <sheetName val="Condition"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
+      <sheetData sheetId="0">
         <row r="1">
           <cell r="B1" t="str">
             <v>아이템 id</v>
@@ -657,15 +657,227 @@
         </row>
         <row r="3">
           <cell r="B3" t="str">
-            <v>UseItem_id</v>
+            <v>id</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4" t="str">
-            <v>PAR_DRP_SCR</v>
+            <v>COIN</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>HER_CGR_LEA</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>HER_CGR_FRT</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>HER_BBR_FRW</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>HER_BBR_FRT</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>HER_RSM_LEA</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>HER_RSM_FLW</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>MIN_CPR</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>MIN_TIN</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>MIN_LAD</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14" t="str">
+            <v>MIN_IRN</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>MIN_ROC</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>HON_001</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
+            <v>WPN_001</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>WPN_002</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>WPN_003</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20" t="str">
+            <v>WPN_004</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21" t="str">
+            <v>WPN_005</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22" t="str">
+            <v>WPN_006</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23" t="str">
+            <v>WPN_007</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24" t="str">
+            <v>WPN_008</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25" t="str">
+            <v>WPN_009</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26" t="str">
+            <v>ARM_001</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27" t="str">
+            <v>ARM_002</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28" t="str">
+            <v>ARM_003</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29" t="str">
+            <v>ARM_004</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30" t="str">
+            <v>ARM_005</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31" t="str">
+            <v>ARM_006</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32" t="str">
+            <v>ARM_007</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33" t="str">
+            <v>BPK_001</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34" t="str">
+            <v>BPK_002</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35" t="str">
+            <v>BPK_003</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36" t="str">
+            <v>SWP_001</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37" t="str">
+            <v>SWP_002</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38" t="str">
+            <v>SWP_003</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39" t="str">
+            <v>SWP_004</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40" t="str">
+            <v>SWP_005</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41" t="str">
+            <v>POT_001</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42" t="str">
+            <v>POT_002</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43" t="str">
+            <v>POT_003</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44" t="str">
+            <v>POT_004</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45" t="str">
+            <v>POT_005</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46" t="str">
+            <v>POT_006</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
@@ -673,7 +885,6 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1035,7 +1246,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>8</v>
@@ -1076,7 +1287,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>12</v>
@@ -1117,7 +1328,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>17</v>
@@ -1129,16 +1340,16 @@
         <v>19</v>
       </c>
       <c r="J3" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M3" s="9" t="s">
         <v>81</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
@@ -1167,21 +1378,21 @@
         <v>10</v>
       </c>
       <c r="J4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B5" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C5" s="10">
         <v>1</v>
@@ -1205,21 +1416,21 @@
         <v>10</v>
       </c>
       <c r="J5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L5" t="s">
+        <v>88</v>
+      </c>
+      <c r="M5" t="s">
         <v>87</v>
-      </c>
-      <c r="K5" t="s">
-        <v>88</v>
-      </c>
-      <c r="L5" t="s">
-        <v>90</v>
-      </c>
-      <c r="M5" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B6" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C6" s="10">
         <v>1</v>
@@ -1243,21 +1454,21 @@
         <v>10</v>
       </c>
       <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
         <v>87</v>
       </c>
-      <c r="K6" t="s">
-        <v>89</v>
-      </c>
       <c r="L6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C7" s="10">
         <v>5</v>
@@ -1281,16 +1492,16 @@
         <v>10</v>
       </c>
       <c r="J7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" t="s">
         <v>92</v>
       </c>
-      <c r="K7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L7" t="s">
-        <v>94</v>
-      </c>
       <c r="M7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1419,7 +1630,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B4" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C4" s="10" t="str">
         <f>_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D4,E4,F4),_xlfn.TEXTJOIN("/",TRUE,G4,H4,I4),_xlfn.TEXTJOIN("/",TRUE,J4,K4,L4))</f>
@@ -1445,7 +1656,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C5" s="10" t="str">
         <f>_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D5,E5,F5),_xlfn.TEXTJOIN("/",TRUE,G5,H5,I5),_xlfn.TEXTJOIN("/",TRUE,J5,K5,L5))</f>
@@ -1733,7 +1944,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1840,14 +2051,14 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C4" t="str">
         <f>_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D4,E4,F4,G4),_xlfn.TEXTJOIN("/",TRUE,H4,I4,J4,K4),_xlfn.TEXTJOIN("/",TRUE,L4,M4,N4,O4))</f>
-        <v>ITM_MIN_CPR/100/2/3</v>
+        <v>MIN_CPR/100/2/3</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -1863,14 +2074,14 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C5" t="str">
         <f>_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D5,E5,F5,G5),_xlfn.TEXTJOIN("/",TRUE,H5,I5,J5,K5),_xlfn.TEXTJOIN("/",TRUE,L5,M5,N5,O5))</f>
-        <v>ITM_MIN_CPR/50/1/2~ITM_MIN_SIL/50/1/3</v>
+        <v>MIN_CPR/50/1/2~MIN_CPR/50/1/3</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="E5">
         <v>50</v>
@@ -1882,7 +2093,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="I5">
         <v>50</v>
@@ -1897,7 +2108,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="D6" s="10" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="H6" s="10"/>
       <c r="J6" s="11"/>
@@ -1997,7 +2208,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2047,7 +2258,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B4" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>49</v>

--- a/Assets/JJData/Xlsx/Monster_Info.xlsx
+++ b/Assets/JJData/Xlsx/Monster_Info.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPG\Assets\JJData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mp324\Documents\GitHub\DungeonRPG\Assets\JJData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F21115A-AB04-4DD7-BB41-8421BF5F4DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23263" windowHeight="12580" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Monster" sheetId="1" r:id="rId1"/>
@@ -399,7 +398,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -626,11 +625,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Item"/>
       <sheetName val="MiscItem"/>
@@ -1206,30 +1202,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.69921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.09765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.59765625" customWidth="1"/>
-    <col min="12" max="13" width="21.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" customWidth="1"/>
+    <col min="12" max="13" width="21.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1270,7 +1266,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1311,7 +1307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1352,7 +1348,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B4" s="10" t="s">
         <v>20</v>
       </c>
@@ -1390,7 +1386,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B5" s="10" t="s">
         <v>83</v>
       </c>
@@ -1428,7 +1424,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B6" s="10" t="s">
         <v>84</v>
       </c>
@@ -1466,7 +1462,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B7" s="10" t="s">
         <v>89</v>
       </c>
@@ -1527,13 +1523,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J5" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J5">
       <formula1>특성테이블id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L5" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L5">
       <formula1>특수조건id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K5 M4:M5" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K5 M4:M5">
       <formula1>드롭테이블id</formula1>
     </dataValidation>
   </dataValidations>
@@ -1543,29 +1539,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="18.09765625" customWidth="1"/>
-    <col min="7" max="7" width="18.09765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="18.09765625" customWidth="1"/>
-    <col min="10" max="10" width="18.09765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="18.09765625" customWidth="1"/>
-    <col min="13" max="13" width="20.19921875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="18.109375" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="18.109375" customWidth="1"/>
+    <col min="13" max="13" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1606,7 +1602,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1617,7 +1613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1628,7 +1624,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B4" s="10" t="s">
         <v>75</v>
       </c>
@@ -1654,7 +1650,7 @@
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>76</v>
       </c>
@@ -1684,7 +1680,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="G6" s="10"/>
@@ -1694,7 +1690,7 @@
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="G7" s="10"/>
@@ -1704,7 +1700,7 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="G8" s="10"/>
@@ -1714,7 +1710,7 @@
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="G9" s="10"/>
@@ -1724,7 +1720,7 @@
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
@@ -1765,13 +1761,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J10 D4:D9 G4:G10" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J10 D4:D9 G4:G10">
       <formula1>속성id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E9" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E9">
       <formula1>특수조건id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E5 K4:K10 H4:H10" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E5 K4:K10 H4:H10">
       <formula1>효과id</formula1>
     </dataValidation>
   </dataValidations>
@@ -1780,26 +1776,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1810,7 +1806,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1821,7 +1817,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1832,7 +1828,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" s="10" t="s">
         <v>28</v>
       </c>
@@ -1845,7 +1841,7 @@
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>31</v>
       </c>
@@ -1860,26 +1856,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1890,7 +1886,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1901,7 +1897,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1912,7 +1908,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" s="10" t="s">
         <v>48</v>
       </c>
@@ -1925,7 +1921,7 @@
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>57</v>
       </c>
@@ -1940,23 +1936,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="15" width="12.8984375" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="15" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2003,7 +1999,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2026,7 +2022,7 @@
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
     </row>
-    <row r="3" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2049,7 +2045,7 @@
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>72</v>
       </c>
@@ -2072,7 +2068,7 @@
       <c r="H4" s="10"/>
       <c r="L4" s="10"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>73</v>
       </c>
@@ -2106,7 +2102,7 @@
       </c>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D6" s="10" t="s">
         <v>94</v>
       </c>
@@ -2114,40 +2110,40 @@
       <c r="J6" s="11"/>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D7" s="10"/>
       <c r="H7" s="10"/>
       <c r="L7" s="10"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C13" t="str">
         <f t="shared" ref="C13:C17" si="0">_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D13,E13,F13,G13),_xlfn.TEXTJOIN("/",TRUE,H13,I13,J13,K13),_xlfn.TEXTJOIN("/",TRUE,L13,M13,N13,O13))</f>
         <v/>
       </c>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C17" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2186,16 +2182,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D11 H8:H11 L8:L11" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D11 H8:H11 L8:L11">
       <formula1>약초id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="데이터 없음" sqref="L4:L7 D7 H4 H6:H7" xr:uid="{00000000-0002-0000-0400-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="데이터 없음" sqref="L4:L7 D7 H4 H6:H7">
       <formula1>광물id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4" xr:uid="{00000000-0002-0000-0400-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4">
       <formula1>아이템id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="데이터 없음" sqref="D4:D6 H5" xr:uid="{00000000-0002-0000-0400-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="데이터 없음" sqref="D4:D6 H5">
       <formula1>아이템id</formula1>
     </dataValidation>
   </dataValidations>
@@ -2204,26 +2200,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2234,7 +2230,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2245,7 +2241,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2256,7 +2252,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" s="10" t="s">
         <v>78</v>
       </c>

--- a/Assets/JJData/Xlsx/Monster_Info.xlsx
+++ b/Assets/JJData/Xlsx/Monster_Info.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mp324\Documents\GitHub\DungeonRPG\Assets\JJData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPG\Assets\JJData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B684DA1F-0734-4BA2-8DE9-6A8CF5B8ABFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23263" windowHeight="12580" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monster" sheetId="1" r:id="rId1"/>
@@ -398,7 +399,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -625,7 +626,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Item"/>
@@ -1202,30 +1203,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5546875" customWidth="1"/>
-    <col min="12" max="13" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5" customWidth="1"/>
+    <col min="12" max="13" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1266,7 +1267,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1307,7 +1308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1348,7 +1349,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>20</v>
       </c>
@@ -1386,7 +1387,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
         <v>83</v>
       </c>
@@ -1424,7 +1425,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
         <v>84</v>
       </c>
@@ -1462,7 +1463,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
         <v>89</v>
       </c>
@@ -1523,13 +1524,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J5" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>특성테이블id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L5" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>특수조건id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K5 M4:M5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K5 M4:M5" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>드롭테이블id</formula1>
     </dataValidation>
   </dataValidations>
@@ -1539,29 +1540,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="18.109375" customWidth="1"/>
-    <col min="10" max="10" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="18.109375" customWidth="1"/>
-    <col min="13" max="13" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18.125" customWidth="1"/>
+    <col min="7" max="7" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="18.125" customWidth="1"/>
+    <col min="10" max="10" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="18.125" customWidth="1"/>
+    <col min="13" max="13" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1602,7 +1603,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1613,7 +1614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1624,7 +1625,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>75</v>
       </c>
@@ -1650,7 +1651,7 @@
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>76</v>
       </c>
@@ -1680,7 +1681,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="G6" s="10"/>
@@ -1690,7 +1691,7 @@
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="G7" s="10"/>
@@ -1700,7 +1701,7 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="G8" s="10"/>
@@ -1710,7 +1711,7 @@
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="G9" s="10"/>
@@ -1720,7 +1721,7 @@
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
@@ -1761,13 +1762,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J10 D4:D9 G4:G10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J10 D4:D9 G4:G10" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>속성id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E9" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>특수조건id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E5 K4:K10 H4:H10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E5 K4:K10 H4:H10" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>효과id</formula1>
     </dataValidation>
   </dataValidations>
@@ -1776,26 +1777,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1806,7 +1807,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1817,7 +1818,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1828,7 +1829,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>28</v>
       </c>
@@ -1841,7 +1842,7 @@
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>31</v>
       </c>
@@ -1856,26 +1857,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1886,7 +1887,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1897,7 +1898,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1908,7 +1909,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>48</v>
       </c>
@@ -1921,7 +1922,7 @@
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>57</v>
       </c>
@@ -1936,23 +1937,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="15" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="15" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1999,7 +2000,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2022,7 +2023,7 @@
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
     </row>
-    <row r="3" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2045,7 +2046,7 @@
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>72</v>
       </c>
@@ -2068,7 +2069,7 @@
       <c r="H4" s="10"/>
       <c r="L4" s="10"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>73</v>
       </c>
@@ -2102,7 +2103,7 @@
       </c>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D6" s="10" t="s">
         <v>94</v>
       </c>
@@ -2110,40 +2111,40 @@
       <c r="J6" s="11"/>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D7" s="10"/>
       <c r="H7" s="10"/>
       <c r="L7" s="10"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C13" t="str">
         <f t="shared" ref="C13:C17" si="0">_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D13,E13,F13,G13),_xlfn.TEXTJOIN("/",TRUE,H13,I13,J13,K13),_xlfn.TEXTJOIN("/",TRUE,L13,M13,N13,O13))</f>
         <v/>
       </c>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2182,16 +2183,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D11 H8:H11 L8:L11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D11 H8:H11 L8:L11" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>약초id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="데이터 없음" sqref="L4:L7 D7 H4 H6:H7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="데이터 없음" sqref="L4:L7 D7 H4 H6:H7" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>광물id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>아이템id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="데이터 없음" sqref="D4:D6 H5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="데이터 없음" sqref="D4:D6 H5" xr:uid="{00000000-0002-0000-0400-000003000000}">
       <formula1>아이템id</formula1>
     </dataValidation>
   </dataValidations>
@@ -2200,26 +2201,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.05" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2230,7 +2231,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2241,7 +2242,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2252,7 +2253,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>78</v>
       </c>
